--- a/initial_version/cpuC.xlsx
+++ b/initial_version/cpuC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayah\Desktop\vr3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nayah\Documents\cpuC-Project\initial_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EEA359-B1A5-4C66-8F8C-2199C7348C6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAB55C4-F98D-4B50-A8FA-B92DA2B2023B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="760" xr2:uid="{D9555408-02B0-4A0A-8354-E99FC93DAD93}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="760" activeTab="4" xr2:uid="{D9555408-02B0-4A0A-8354-E99FC93DAD93}"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="4" r:id="rId1"/>
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4574D21-898F-4549-B1FA-1B8A851E51E8}">
   <dimension ref="A3:U29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19708,8 +19708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD6B0D5-84C6-4BF5-92E6-3F0D4CF93B70}">
   <dimension ref="B1:BG136"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AV39" sqref="AV39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
